--- a/biology/Médecine/Plexus_prévertébral/Plexus_prévertébral.xlsx
+++ b/biology/Médecine/Plexus_prévertébral/Plexus_prévertébral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plexus_pr%C3%A9vert%C3%A9bral</t>
+          <t>Plexus_prévertébral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus prévertébral représente un ensemble de fibres sympathiques, situées le long de l'aorte et innervant les viscères abdominaux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plexus_pr%C3%A9vert%C3%A9bral</t>
+          <t>Plexus_prévertébral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus prévertébral se situe le long de l'aorte, à partir du hiatus aortique du diaphragme. Il descend jusqu'au promontoire sacré ou il se divise en deux pour donner les nerfs hypogastriques.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plexus_pr%C3%A9vert%C3%A9bral</t>
+          <t>Plexus_prévertébral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,16 +556,87 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le plexus prévertébral est composé d'un ensemble de plexus plus petits. En plus des différents plexus, on rencontre des ganglions qui portent le nom des artères sortant de l'aorte dont ils sont voisins[1].
-Les plexus
-On distingue 3 plexus, les voici dans le sens cranio-caudal:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plexus prévertébral est composé d'un ensemble de plexus plus petits. En plus des différents plexus, on rencontre des ganglions qui portent le nom des artères sortant de l'aorte dont ils sont voisins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plexus_prévertébral</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plexus_pr%C3%A9vert%C3%A9bral</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les plexus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On distingue 3 plexus, les voici dans le sens cranio-caudal:
 Le plexus cœliaque
 Le plexus aortique abdominal
-Le plexus hypogastrique supérieur
-Les ganglions
-On distingue 4 ganglions, les voici dans le sens cranio-caudal:
+Le plexus hypogastrique supérieur</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plexus_prévertébral</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plexus_pr%C3%A9vert%C3%A9bral</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les ganglions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On distingue 4 ganglions, les voici dans le sens cranio-caudal:
 Le ganglion cœliaque
 Le ganglion artico-rénal
 Le ganglion mésentérique supérieur
